--- a/data/trans_camb/P71_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P71_R-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.809873601655699</v>
+        <v>3.589008649148474</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.571595025287344</v>
+        <v>1.725260540937665</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.695974989757797</v>
+        <v>-4.609556529589275</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.518376077819668</v>
+        <v>-4.419965241512303</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.078561802841468</v>
+        <v>-5.868401695809095</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-14.08662969784726</v>
+        <v>-14.32384083081137</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.866430987273781</v>
+        <v>1.83947168505779</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.2426276095163668</v>
+        <v>0.2396718693812258</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.429064572197157</v>
+        <v>-7.262073440575212</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.17736717202333</v>
+        <v>12.64540554832916</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.893066930605931</v>
+        <v>9.551221987919144</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.609957446662906</v>
+        <v>1.570279799338561</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.228769404350942</v>
+        <v>7.159493883943313</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.804592276098183</v>
+        <v>5.297611423906065</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-5.799888892720636</v>
+        <v>-5.417330399017565</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.872769250469494</v>
+        <v>8.521283244023492</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.286993750684387</v>
+        <v>6.830301164563854</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-2.617126920798242</v>
+        <v>-2.004128721541532</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.3577059361978014</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.5137174706739442</v>
+        <v>-0.5137174706739444</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.4595961820422336</v>
+        <v>0.3972370014924531</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1772783911797258</v>
+        <v>0.2086235485881954</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5600514894986403</v>
+        <v>-0.5584618736375078</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.292945811522438</v>
+        <v>-0.2712026427867101</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.355422003214492</v>
+        <v>-0.361466125373223</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8362812467812737</v>
+        <v>-0.8267196413456553</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1699466304917721</v>
+        <v>0.1813345475101473</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02326580405491758</v>
+        <v>0.0201239376655585</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6601047180723767</v>
+        <v>-0.6555142279890301</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.529625230605387</v>
+        <v>2.447774788011214</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.045975544050664</v>
+        <v>1.880435679065077</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3580357707889698</v>
+        <v>0.3216257122316492</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7177723538325216</v>
+        <v>0.6639661950443732</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4779900273443646</v>
+        <v>0.5175012866404346</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.5534763854153772</v>
+        <v>-0.5254757059099541</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.11095051166532</v>
+        <v>1.088763570046415</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7848005643270912</v>
+        <v>0.8817890855275331</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.3027878173773174</v>
+        <v>-0.2540333375842892</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>9.846137084829218</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-8.853078126664512</v>
+        <v>-8.853078126664514</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-2.020952194170045</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.798273651022189</v>
+        <v>-4.15139455688051</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.080157054889027</v>
+        <v>4.210128410922716</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-12.95400533418318</v>
+        <v>-12.67809887819164</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.670358581327115</v>
+        <v>-8.090495971365257</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05992196574767533</v>
+        <v>-0.4754507728318247</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-17.70365886425575</v>
+        <v>-17.76780411919175</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.39067844397943</v>
+        <v>-4.524420806157647</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.905373150167428</v>
+        <v>3.776578985665867</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-14.14122363571816</v>
+        <v>-14.1373372411191</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.254589739866343</v>
+        <v>6.263041825142918</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.40232499382758</v>
+        <v>15.54152320797599</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.858423148649431</v>
+        <v>-5.076813780678986</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.195292872737358</v>
+        <v>3.648428653907565</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>12.46499089851168</v>
+        <v>11.52464690697819</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-8.246706128882849</v>
+        <v>-8.107165414796839</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.573773457745093</v>
+        <v>3.776894455786747</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.1662993109013</v>
+        <v>12.0567826920383</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-7.810798184948234</v>
+        <v>-7.928172715885571</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.7834334400975336</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.7044181278881015</v>
+        <v>-0.7044181278881017</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1041393490204927</v>
@@ -974,7 +974,7 @@
         <v>0.3061119142072802</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.6540706488323027</v>
+        <v>-0.6540706488323026</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.03623132584535071</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2534399298785689</v>
+        <v>-0.2725453211158634</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2432959187865432</v>
+        <v>0.2846122698309576</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8296303771529819</v>
+        <v>-0.832974989867324</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3551806290461856</v>
+        <v>-0.3629841917322419</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.002871723427646611</v>
+        <v>-0.02014145682052564</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7626790947302572</v>
+        <v>-0.7677015826816962</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2427190339616753</v>
+        <v>-0.2537241800138113</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2245174091753563</v>
+        <v>0.2088955655287293</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.7649736189107282</v>
+        <v>-0.7665139995763601</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6223144783112134</v>
+        <v>0.6364042252800237</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.496435156676841</v>
+        <v>1.508499496866649</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.4563182889553721</v>
+        <v>-0.4884623026930655</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2570905321610111</v>
+        <v>0.2350203189325413</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7750265703287006</v>
+        <v>0.6994290386998399</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5052974943284535</v>
+        <v>-0.4866886164539099</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2478395785374018</v>
+        <v>0.2592179819607647</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8580442066889815</v>
+        <v>0.8421457674009885</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.5527305162485009</v>
+        <v>-0.5675932538628582</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>22.22285213323963</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-1.56748686227014</v>
+        <v>-1.567486862270143</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>7.358687224969176</v>
@@ -1083,7 +1083,7 @@
         <v>12.15976042839151</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-9.31856267926352</v>
+        <v>-9.318562679263517</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>15.83337716395383</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>13.6211423726058</v>
+        <v>13.38984985560719</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>16.05093741497879</v>
+        <v>16.9725565711216</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.101730118977628</v>
+        <v>-5.96304891921905</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.9617547933056978</v>
+        <v>-1.582962277440551</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.347278159579817</v>
+        <v>2.050138270747453</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-16.54160329620239</v>
+        <v>-16.70783708263036</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>11.81669761222042</v>
+        <v>11.42855969238887</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>15.21950415200689</v>
+        <v>15.62346093385103</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-7.203850454278717</v>
+        <v>-7.190662246939956</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.01823036153727</v>
+        <v>23.42107679515944</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>27.67770217154843</v>
+        <v>27.84814191760091</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.850459881721306</v>
+        <v>3.004918567769958</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.36907633375951</v>
+        <v>15.70413268723121</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>21.48117827181531</v>
+        <v>21.63915670893978</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-2.157195392234171</v>
+        <v>-1.326896857840739</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>20.48090896824419</v>
+        <v>20.09303704302028</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>24.41747592225058</v>
+        <v>24.68070257415948</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2033962304197763</v>
+        <v>0.397774373281827</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>1.47861081841627</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1042936801442925</v>
+        <v>-0.1042936801442927</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.3449368849161625</v>
@@ -1188,7 +1188,7 @@
         <v>0.5699861612903052</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.4368056263588009</v>
+        <v>-0.4368056263588008</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.9585871953628915</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.7974556558878748</v>
+        <v>0.7628163632999188</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.9078159498442068</v>
+        <v>0.9742716132268692</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3650940801685165</v>
+        <v>-0.3477723033773469</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.04689240458732701</v>
+        <v>-0.05629313897429795</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04574812221404859</v>
+        <v>0.07900077369531751</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6226874450887752</v>
+        <v>-0.6327543500311819</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6205378799923784</v>
+        <v>0.6067787023378536</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.8151941607918685</v>
+        <v>0.8356542700386177</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3864561991199075</v>
+        <v>-0.3864766328827211</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.786333639077498</v>
+        <v>1.858104434468714</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.076528100795839</v>
+        <v>2.21924501406829</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.217328488836953</v>
+        <v>0.2472669358381314</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9502636200650653</v>
+        <v>0.9711795258514635</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.245549718582181</v>
+        <v>1.30523489033862</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1090051988820745</v>
+        <v>-0.07234119231050674</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.421240444942598</v>
+        <v>1.398889199331553</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.670717472141921</v>
+        <v>1.689266089026869</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.01820883743030821</v>
+        <v>0.04205987092577013</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>11.4965959852348</v>
+        <v>12.35947951110298</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>12.46170071572016</v>
+        <v>12.37711958707191</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.30893858114739</v>
+        <v>-10.27667622438987</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.055977762224187</v>
+        <v>6.16053209446452</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>8.427721068662413</v>
+        <v>8.086449381216397</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-13.20695674870094</v>
+        <v>-12.95665727122887</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>10.66627553079896</v>
+        <v>11.06256505084173</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>11.72161679529899</v>
+        <v>11.70366909947884</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-10.30668461574499</v>
+        <v>-10.18231598580306</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.44787348471488</v>
+        <v>19.97981461554173</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>19.82462386479417</v>
+        <v>19.90843221659046</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-3.513600307335833</v>
+        <v>-3.731595632196098</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15.29611584151498</v>
+        <v>15.89896231584849</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>17.76452962512963</v>
+        <v>17.64965026986781</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-5.317189244582551</v>
+        <v>-4.952036674626736</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>16.95115506007527</v>
+        <v>17.08364120870024</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>17.8253488003331</v>
+        <v>17.98807667603982</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-5.034687763586473</v>
+        <v>-5.25984982095408</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.4732830303351662</v>
+        <v>0.5034934227265605</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.509583133367112</v>
+        <v>0.5161485911581205</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4266904515052834</v>
+        <v>-0.4330800077157523</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2139181207795305</v>
+        <v>0.2199893266761474</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3010249662760592</v>
+        <v>0.2730775615869787</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4665861526209047</v>
+        <v>-0.4616962288692031</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4119971645740361</v>
+        <v>0.4376124816554056</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.466671100393225</v>
+        <v>0.4580495334312049</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4133995839945859</v>
+        <v>-0.4120906619416543</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.916586988270565</v>
+        <v>0.9468317642226095</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9572993544620421</v>
+        <v>0.9492062238340672</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1629105172042678</v>
+        <v>-0.1715209173971529</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6638183614127278</v>
+        <v>0.6953405094615693</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7639196132101219</v>
+        <v>0.7598549756549037</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2273818392676398</v>
+        <v>-0.2180688602942465</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7566380658979982</v>
+        <v>0.7697079126215217</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8032756894663114</v>
+        <v>0.8073425138509265</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2236502656266799</v>
+        <v>-0.2372211038116693</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>13.62037526891265</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-4.564489452323373</v>
+        <v>-4.564489452323378</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>5.811586224384685</v>
@@ -1511,7 +1511,7 @@
         <v>17.75596430292628</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-5.644917094647845</v>
+        <v>-5.64491709464785</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>6.437352672946927</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.647835818829667</v>
+        <v>0.8918683324786214</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.913014582542824</v>
+        <v>7.29192698235442</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-11.09278454410234</v>
+        <v>-11.39639404950132</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.02811097995862729</v>
+        <v>0.321034087278074</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>12.08797636953723</v>
+        <v>11.86938522985037</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-10.68679773746295</v>
+        <v>-10.78619846568264</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.696841913299971</v>
+        <v>2.324409248463064</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>11.39443655055138</v>
+        <v>11.67458072361017</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-9.081751571309963</v>
+        <v>-9.352743894545501</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>14.74700337532991</v>
+        <v>15.12999298353209</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>20.15098509218361</v>
+        <v>20.11866099003334</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.726598066868949</v>
+        <v>1.066972003908633</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11.09877039753539</v>
+        <v>11.55165253753825</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>23.07170710540236</v>
+        <v>23.67706787121534</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.9100921062231571</v>
+        <v>-0.6906282726411122</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.50647083971871</v>
+        <v>10.69167872395521</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>20.02740746388925</v>
+        <v>19.80936843513742</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.137159766181427</v>
+        <v>-1.312676021511594</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.4017672808679262</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1346411152118493</v>
+        <v>-0.1346411152118495</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1639727631931437</v>
@@ -1616,7 +1616,7 @@
         <v>0.5009810432981925</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.1592702264524383</v>
+        <v>-0.1592702264524384</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1847204875402754</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.04300592180621577</v>
+        <v>0.02177379787737354</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1856694731986485</v>
+        <v>0.1876782510998025</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2900455322790172</v>
+        <v>-0.2990298082470979</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.002116419905054509</v>
+        <v>0.007984276489975049</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.3110693287359502</v>
+        <v>0.3013740364340982</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2729123487236175</v>
+        <v>-0.283883508926248</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04718198352558446</v>
+        <v>0.06397186246049623</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2950190237659678</v>
+        <v>0.3091249436593944</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2418797281875439</v>
+        <v>-0.2503699547468174</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4929073811768512</v>
+        <v>0.5084645901710011</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6900670361488892</v>
+        <v>0.678517648879586</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.06008244265933418</v>
+        <v>0.03913915629169379</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3465336121576136</v>
+        <v>0.3609747792258185</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7212678692590546</v>
+        <v>0.7350308112340124</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.02898512035759854</v>
+        <v>-0.02161645624257818</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3261333911676644</v>
+        <v>0.3319805300264784</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6141589201438691</v>
+        <v>0.6108790449835623</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.03604227231623831</v>
+        <v>-0.03916074164284065</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>10.78600080027719</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4.249912508319947</v>
+        <v>4.24991250831995</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-1.120082263845906</v>
@@ -1725,7 +1725,7 @@
         <v>0.4414938355509879</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-14.58867657449978</v>
+        <v>-14.58867657449979</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.7752397023919111</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>2.929007519129879</v>
+        <v>3.008298867749672</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>4.092262615052753</v>
+        <v>4.723407875519459</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.843467800406231</v>
+        <v>-3.612275119950704</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-5.13672386441575</v>
+        <v>-4.948907810674763</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.810946461486465</v>
+        <v>-3.629256540384901</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-18.61803912860298</v>
+        <v>-18.09748436330685</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.418971655802773</v>
+        <v>-2.65395199167328</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.133969956742878</v>
+        <v>-0.9476387309372593</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-14.26063708732013</v>
+        <v>-14.41802333608768</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>15.12003141260567</v>
+        <v>15.37890372112543</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>17.1395455637809</v>
+        <v>17.10291226317922</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>13.70297203825063</v>
+        <v>13.24308066926332</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.642067589295099</v>
+        <v>2.721835007271127</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>4.194156406678244</v>
+        <v>4.447027736475788</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-10.94828148909519</v>
+        <v>-10.88602288691975</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.315229898460458</v>
+        <v>4.371215271122413</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.351428104622323</v>
+        <v>5.927846799480433</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-7.23891298990612</v>
+        <v>-7.536992142320956</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.9244464843073842</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.3642514727821443</v>
+        <v>0.3642514727821445</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.03438733442842271</v>
@@ -1830,7 +1830,7 @@
         <v>0.01355417960021148</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.447882906843739</v>
+        <v>-0.4478829068437392</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.02714813064876469</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.1856374214044521</v>
+        <v>0.1924023723389902</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.2761905421834164</v>
+        <v>0.2749173017937208</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2866759846986821</v>
+        <v>-0.2836071112444957</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1499276219104672</v>
+        <v>-0.1459221147795972</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1149087435952044</v>
+        <v>-0.1049706242851889</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5376399835019782</v>
+        <v>-0.5318915143856693</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.08147479597877047</v>
+        <v>-0.08698845119009485</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.03830358635923026</v>
+        <v>-0.03228422586839919</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4854936630846997</v>
+        <v>-0.4894603409242132</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.654851092966947</v>
+        <v>1.618986926055472</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.840626508903171</v>
+        <v>1.782008584535436</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.494086169800861</v>
+        <v>1.36126459914381</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.08580904451511613</v>
+        <v>0.09036338767835936</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1370210950716188</v>
+        <v>0.1450723563922639</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.3537782195578012</v>
+        <v>-0.3480942420988802</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.159723931900799</v>
+        <v>0.1630026807659073</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1984443294186428</v>
+        <v>0.2243331257557329</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.2677779665513851</v>
+        <v>-0.2712951249490994</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>11.65118611403065</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-7.493803699386695</v>
+        <v>-7.4938036993867</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>10.37008323054322</v>
+        <v>10.08155258619218</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>13.29069675690286</v>
+        <v>13.19972216298392</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-5.824315633238959</v>
+        <v>-5.720991305475649</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.662014954354973</v>
+        <v>1.444343101334236</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>5.713502538954468</v>
+        <v>5.740550467330649</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-13.07163115158608</v>
+        <v>-12.96688731836238</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>6.422453617264456</v>
+        <v>6.456163395481869</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>10.11282892428765</v>
+        <v>9.980317784523086</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-8.723001473991165</v>
+        <v>-8.902687670177906</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>14.45647646964627</v>
+        <v>14.58155882028153</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>17.6018653898776</v>
+        <v>17.55489842668519</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-2.035188385735707</v>
+        <v>-1.927978033328338</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6.146439603395688</v>
+        <v>5.929139026943397</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>10.31397058241609</v>
+        <v>10.23225597525065</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-9.063055301318846</v>
+        <v>-9.106649533535844</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>9.605740690707623</v>
+        <v>9.576574609402808</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>13.28388452138575</v>
+        <v>13.06129760340442</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-6.200639326696491</v>
+        <v>-6.103473740947877</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.2856265337033394</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.3960071756614114</v>
+        <v>-0.3960071756614115</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.3497681143217211</v>
@@ -2053,7 +2053,7 @@
         <v>0.5056825276445105</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.3252446196713186</v>
+        <v>-0.3252446196713188</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.5409635246159242</v>
+        <v>0.5279062271966041</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.6957199568281366</v>
+        <v>0.6879616567276283</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3066359800252266</v>
+        <v>-0.3022545076722791</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.05692167579209388</v>
+        <v>0.05157795666819034</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1982168855167595</v>
+        <v>0.2000459434975246</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.4501057555057491</v>
+        <v>-0.448103636633954</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.268644140877632</v>
+        <v>0.2730195056938499</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.425495259921345</v>
+        <v>0.4220844756739792</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3688790470808409</v>
+        <v>-0.3723812427950111</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.8522094746544243</v>
+        <v>0.8509552853685139</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.035834377660789</v>
+        <v>1.028263095072128</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1157903761859084</v>
+        <v>-0.1131617525561521</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2276629933180453</v>
+        <v>0.2222960345611113</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3855041738487203</v>
+        <v>0.3849395886848456</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.3424228270907515</v>
+        <v>-0.3402870045628141</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4294603611682732</v>
+        <v>0.4294935486823432</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.6019596243777134</v>
+        <v>0.5910376304946632</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.2755381702373255</v>
+        <v>-0.2733152572540642</v>
       </c>
     </row>
     <row r="46">
